--- a/medicine/Enfance/Élodie_Tirel/Élodie_Tirel.xlsx
+++ b/medicine/Enfance/Élodie_Tirel/Élodie_Tirel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Tirel</t>
+          <t>Élodie_Tirel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Tirel (née le 15 mai 1972 à Caen) est une écrivaine française de littérature fantastique, lauréate du Prix Merlin 2008, du Prix Pierre Bottero pour É-Den en 2015 et du Prix des Mots de l'ouest pour le tome 1 d'Epsilon, en 2014.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Tirel</t>
+          <t>Élodie_Tirel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Tirel est professeur d'espagnol en Bretagne à Saint-Malo. C'est en 2004, à 32 ans, qu'elle présente son premier roman, Les Héritiers du Stiryx, publié aux éditions Milan. Cet ouvrage a reçu le prix Merlin en 2008.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Tirel</t>
+          <t>Élodie_Tirel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Héritiers du Stiryx, Éditions Milan (2007)
 Luna (L'Elfe de lune), Éditions Michel Quintin (2009-2013)
